--- a/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>IMCR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +705,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>35200</v>
+        <v>42600</v>
       </c>
       <c r="E8" s="3">
-        <v>32500</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>36300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>33500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,9 +735,12 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,9 +765,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,19 +812,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>137300</v>
+        <v>105900</v>
       </c>
       <c r="E12" s="3">
-        <v>114800</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>141500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>118300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,21 +869,24 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -880,20 +899,23 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>12700</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>9200</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>13000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>197700</v>
+        <v>164600</v>
       </c>
       <c r="E17" s="3">
-        <v>160800</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>203800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>165700</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-162500</v>
+        <v>-122000</v>
       </c>
       <c r="E18" s="3">
-        <v>-128300</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-167400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-132200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,19 +1017,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6800</v>
+        <v>1700</v>
       </c>
       <c r="E20" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>-7000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-156600</v>
+        <v>-107500</v>
       </c>
       <c r="E21" s="3">
-        <v>-111900</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-161400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-115300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,20 +1074,23 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>4200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-173300</v>
+        <v>-123600</v>
       </c>
       <c r="E23" s="3">
-        <v>-121100</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-178600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-124800</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,20 +1134,23 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-30600</v>
+        <v>-18800</v>
       </c>
       <c r="E24" s="3">
-        <v>-22700</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>-31500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-23400</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-142700</v>
+        <v>-104800</v>
       </c>
       <c r="E26" s="3">
-        <v>-98400</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-147100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-101400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-142700</v>
+        <v>-104800</v>
       </c>
       <c r="E27" s="3">
-        <v>-98400</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-147100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-101400</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,20 +1374,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6800</v>
+        <v>-1700</v>
       </c>
       <c r="E32" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-7500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-142700</v>
+        <v>-104800</v>
       </c>
       <c r="E33" s="3">
-        <v>-98400</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-147100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-101400</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-142700</v>
+        <v>-104800</v>
       </c>
       <c r="E35" s="3">
-        <v>-98400</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-147100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-101400</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>101600</v>
+        <v>183600</v>
       </c>
       <c r="E41" s="3">
-        <v>170800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>104700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>176000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62600</v>
+        <v>23600</v>
       </c>
       <c r="E43" s="3">
-        <v>52900</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>64500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>54500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6500</v>
+        <v>9200</v>
       </c>
       <c r="E45" s="3">
-        <v>11400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>6700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>11700</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>170700</v>
+        <v>216400</v>
       </c>
       <c r="E46" s="3">
-        <v>235100</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>175900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>242200</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,20 +1737,23 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E47" s="3">
         <v>800</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>75400</v>
+        <v>52100</v>
       </c>
       <c r="E48" s="3">
-        <v>28700</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>77700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>29500</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,9 +1797,12 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1700,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>400</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>500</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8100</v>
+        <v>9400</v>
       </c>
       <c r="E52" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>8300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>254900</v>
+        <v>279100</v>
       </c>
       <c r="E54" s="3">
-        <v>268800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>262700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>277000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21600</v>
+        <v>8200</v>
       </c>
       <c r="E57" s="3">
-        <v>8800</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>22300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>9100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29000</v>
+        <v>2900</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>29900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65500</v>
+        <v>66800</v>
       </c>
       <c r="E59" s="3">
-        <v>59300</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>67500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>61100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>116100</v>
+        <v>77800</v>
       </c>
       <c r="E60" s="3">
-        <v>68100</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>119600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>70200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,20 +2125,23 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52600</v>
+        <v>87500</v>
       </c>
       <c r="E61" s="3">
-        <v>25900</v>
+        <v>54200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>26700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,20 +2155,23 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66000</v>
+        <v>35400</v>
       </c>
       <c r="E62" s="3">
-        <v>97100</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>68000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>234600</v>
+        <v>200700</v>
       </c>
       <c r="E66" s="3">
-        <v>191100</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>241800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>197000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-368600</v>
+        <v>-468500</v>
       </c>
       <c r="E72" s="3">
-        <v>-230100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-379900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-237100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20300</v>
+        <v>78300</v>
       </c>
       <c r="E76" s="3">
-        <v>77700</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>20900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>80100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-142700</v>
+        <v>-104800</v>
       </c>
       <c r="E81" s="3">
-        <v>-98400</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-147100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-101400</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,8 +2701,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2513,10 +2711,10 @@
         <v>12700</v>
       </c>
       <c r="E83" s="3">
-        <v>9200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>13000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>9500</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-139200</v>
+        <v>-85700</v>
       </c>
       <c r="E89" s="3">
-        <v>-22800</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-143500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-23500</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2925,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5600</v>
+        <v>-4400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-5800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4900</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5700</v>
+        <v>700</v>
       </c>
       <c r="E94" s="3">
-        <v>79700</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-5900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>82100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,21 +3176,24 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>75700</v>
+        <v>164100</v>
       </c>
       <c r="E100" s="3">
+        <v>78000</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,20 +3206,23 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2988,20 +3236,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-69200</v>
+        <v>78900</v>
       </c>
       <c r="E102" s="3">
-        <v>57000</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>-71300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>58700</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>42600</v>
+        <v>41100</v>
       </c>
       <c r="E8" s="3">
-        <v>36300</v>
+        <v>35000</v>
       </c>
       <c r="F8" s="3">
-        <v>33500</v>
+        <v>32300</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>105900</v>
+        <v>102000</v>
       </c>
       <c r="E12" s="3">
-        <v>141500</v>
+        <v>136400</v>
       </c>
       <c r="F12" s="3">
-        <v>118300</v>
+        <v>114000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="F15" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>164600</v>
+        <v>158600</v>
       </c>
       <c r="E17" s="3">
-        <v>203800</v>
+        <v>196400</v>
       </c>
       <c r="F17" s="3">
-        <v>165700</v>
+        <v>159700</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-122000</v>
+        <v>-117500</v>
       </c>
       <c r="E18" s="3">
-        <v>-167400</v>
+        <v>-161400</v>
       </c>
       <c r="F18" s="3">
-        <v>-132200</v>
+        <v>-127500</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1027,10 +1027,10 @@
         <v>1700</v>
       </c>
       <c r="E20" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="F20" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-107500</v>
+        <v>-103500</v>
       </c>
       <c r="E21" s="3">
-        <v>-161400</v>
+        <v>-155400</v>
       </c>
       <c r="F21" s="3">
-        <v>-115300</v>
+        <v>-111000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,10 +1084,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E22" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-123600</v>
+        <v>-119100</v>
       </c>
       <c r="E23" s="3">
-        <v>-178600</v>
+        <v>-172100</v>
       </c>
       <c r="F23" s="3">
-        <v>-124800</v>
+        <v>-120300</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-18800</v>
+        <v>-18100</v>
       </c>
       <c r="E24" s="3">
-        <v>-31500</v>
+        <v>-30400</v>
       </c>
       <c r="F24" s="3">
-        <v>-23400</v>
+        <v>-22600</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-104800</v>
+        <v>-101000</v>
       </c>
       <c r="E26" s="3">
-        <v>-147100</v>
+        <v>-141700</v>
       </c>
       <c r="F26" s="3">
-        <v>-101400</v>
+        <v>-97700</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-104800</v>
+        <v>-101000</v>
       </c>
       <c r="E27" s="3">
-        <v>-147100</v>
+        <v>-141700</v>
       </c>
       <c r="F27" s="3">
-        <v>-101400</v>
+        <v>-97700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1387,10 +1387,10 @@
         <v>-1700</v>
       </c>
       <c r="E32" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F32" s="3">
-        <v>-7500</v>
+        <v>-7200</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-104800</v>
+        <v>-101000</v>
       </c>
       <c r="E33" s="3">
-        <v>-147100</v>
+        <v>-141700</v>
       </c>
       <c r="F33" s="3">
-        <v>-101400</v>
+        <v>-97700</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-104800</v>
+        <v>-101000</v>
       </c>
       <c r="E35" s="3">
-        <v>-147100</v>
+        <v>-141700</v>
       </c>
       <c r="F35" s="3">
-        <v>-101400</v>
+        <v>-97700</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>183600</v>
+        <v>176900</v>
       </c>
       <c r="E41" s="3">
-        <v>104700</v>
+        <v>100900</v>
       </c>
       <c r="F41" s="3">
-        <v>176000</v>
+        <v>169600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="E43" s="3">
-        <v>64500</v>
+        <v>62200</v>
       </c>
       <c r="F43" s="3">
-        <v>54500</v>
+        <v>52500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="E45" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="F45" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>216400</v>
+        <v>208600</v>
       </c>
       <c r="E46" s="3">
-        <v>175900</v>
+        <v>169500</v>
       </c>
       <c r="F46" s="3">
-        <v>242200</v>
+        <v>233500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52100</v>
+        <v>50300</v>
       </c>
       <c r="E48" s="3">
-        <v>77700</v>
+        <v>74800</v>
       </c>
       <c r="F48" s="3">
-        <v>29500</v>
+        <v>28500</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="E52" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="F52" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>279100</v>
+        <v>268900</v>
       </c>
       <c r="E54" s="3">
-        <v>262700</v>
+        <v>253200</v>
       </c>
       <c r="F54" s="3">
-        <v>277000</v>
+        <v>267000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="E57" s="3">
-        <v>22300</v>
+        <v>21500</v>
       </c>
       <c r="F57" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,10 +2045,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
-        <v>29900</v>
+        <v>28800</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>66800</v>
+        <v>64300</v>
       </c>
       <c r="E59" s="3">
-        <v>67500</v>
+        <v>65000</v>
       </c>
       <c r="F59" s="3">
-        <v>61100</v>
+        <v>58900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>77800</v>
+        <v>75000</v>
       </c>
       <c r="E60" s="3">
-        <v>119600</v>
+        <v>115300</v>
       </c>
       <c r="F60" s="3">
-        <v>70200</v>
+        <v>67700</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>87500</v>
+        <v>84300</v>
       </c>
       <c r="E61" s="3">
-        <v>54200</v>
+        <v>52200</v>
       </c>
       <c r="F61" s="3">
-        <v>26700</v>
+        <v>25700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35400</v>
+        <v>34100</v>
       </c>
       <c r="E62" s="3">
-        <v>68000</v>
+        <v>65600</v>
       </c>
       <c r="F62" s="3">
-        <v>100100</v>
+        <v>96400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200700</v>
+        <v>193500</v>
       </c>
       <c r="E66" s="3">
-        <v>241800</v>
+        <v>233000</v>
       </c>
       <c r="F66" s="3">
-        <v>197000</v>
+        <v>189800</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-468500</v>
+        <v>75300</v>
       </c>
       <c r="E72" s="3">
-        <v>-379900</v>
+        <v>-366100</v>
       </c>
       <c r="F72" s="3">
-        <v>-237100</v>
+        <v>-228500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78300</v>
+        <v>75500</v>
       </c>
       <c r="E76" s="3">
-        <v>20900</v>
+        <v>20100</v>
       </c>
       <c r="F76" s="3">
-        <v>80100</v>
+        <v>77200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-104800</v>
+        <v>-101000</v>
       </c>
       <c r="E81" s="3">
-        <v>-147100</v>
+        <v>-141700</v>
       </c>
       <c r="F81" s="3">
-        <v>-101400</v>
+        <v>-97700</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="E83" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="F83" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-85700</v>
+        <v>-82600</v>
       </c>
       <c r="E89" s="3">
-        <v>-143500</v>
+        <v>-138300</v>
       </c>
       <c r="F89" s="3">
-        <v>-23500</v>
+        <v>-22700</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="E91" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="F91" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="F94" s="3">
-        <v>82100</v>
+        <v>79100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,10 +3186,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>164100</v>
+        <v>158100</v>
       </c>
       <c r="E100" s="3">
-        <v>78000</v>
+        <v>75200</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>78900</v>
+        <v>76000</v>
       </c>
       <c r="E102" s="3">
-        <v>-71300</v>
+        <v>-68800</v>
       </c>
       <c r="F102" s="3">
-        <v>58700</v>
+        <v>56600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>41100</v>
+        <v>40100</v>
       </c>
       <c r="E8" s="3">
-        <v>35000</v>
+        <v>34200</v>
       </c>
       <c r="F8" s="3">
-        <v>32300</v>
+        <v>31500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>102000</v>
+        <v>99600</v>
       </c>
       <c r="E12" s="3">
-        <v>136400</v>
+        <v>133100</v>
       </c>
       <c r="F12" s="3">
-        <v>114000</v>
+        <v>111200</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
@@ -912,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="F15" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>158600</v>
+        <v>154800</v>
       </c>
       <c r="E17" s="3">
-        <v>196400</v>
+        <v>191700</v>
       </c>
       <c r="F17" s="3">
-        <v>159700</v>
+        <v>155900</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-117500</v>
+        <v>-114700</v>
       </c>
       <c r="E18" s="3">
-        <v>-161400</v>
+        <v>-157500</v>
       </c>
       <c r="F18" s="3">
-        <v>-127500</v>
+        <v>-124400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="F20" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-103500</v>
+        <v>-101100</v>
       </c>
       <c r="E21" s="3">
-        <v>-155400</v>
+        <v>-151800</v>
       </c>
       <c r="F21" s="3">
-        <v>-111000</v>
+        <v>-108400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,10 +1084,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-119100</v>
+        <v>-116300</v>
       </c>
       <c r="E23" s="3">
-        <v>-172100</v>
+        <v>-168000</v>
       </c>
       <c r="F23" s="3">
-        <v>-120300</v>
+        <v>-117400</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-18100</v>
+        <v>-17700</v>
       </c>
       <c r="E24" s="3">
-        <v>-30400</v>
+        <v>-29600</v>
       </c>
       <c r="F24" s="3">
-        <v>-22600</v>
+        <v>-22000</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-101000</v>
+        <v>-98600</v>
       </c>
       <c r="E26" s="3">
-        <v>-141700</v>
+        <v>-138300</v>
       </c>
       <c r="F26" s="3">
-        <v>-97700</v>
+        <v>-95300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-101000</v>
+        <v>-98600</v>
       </c>
       <c r="E27" s="3">
-        <v>-141700</v>
+        <v>-138300</v>
       </c>
       <c r="F27" s="3">
-        <v>-97700</v>
+        <v>-95300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="F32" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-101000</v>
+        <v>-98600</v>
       </c>
       <c r="E33" s="3">
-        <v>-141700</v>
+        <v>-138300</v>
       </c>
       <c r="F33" s="3">
-        <v>-97700</v>
+        <v>-95300</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-101000</v>
+        <v>-98600</v>
       </c>
       <c r="E35" s="3">
-        <v>-141700</v>
+        <v>-138300</v>
       </c>
       <c r="F35" s="3">
-        <v>-97700</v>
+        <v>-95300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>176900</v>
+        <v>172700</v>
       </c>
       <c r="E41" s="3">
-        <v>100900</v>
+        <v>98500</v>
       </c>
       <c r="F41" s="3">
-        <v>169600</v>
+        <v>165600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22800</v>
+        <v>22200</v>
       </c>
       <c r="E43" s="3">
-        <v>62200</v>
+        <v>60700</v>
       </c>
       <c r="F43" s="3">
-        <v>52500</v>
+        <v>51300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="E45" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="F45" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>208600</v>
+        <v>203600</v>
       </c>
       <c r="E46" s="3">
-        <v>169500</v>
+        <v>165400</v>
       </c>
       <c r="F46" s="3">
-        <v>233500</v>
+        <v>227900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="3">
         <v>800</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50300</v>
+        <v>49000</v>
       </c>
       <c r="E48" s="3">
-        <v>74800</v>
+        <v>73100</v>
       </c>
       <c r="F48" s="3">
-        <v>28500</v>
+        <v>27800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="E52" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="F52" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>268900</v>
+        <v>262500</v>
       </c>
       <c r="E54" s="3">
-        <v>253200</v>
+        <v>247100</v>
       </c>
       <c r="F54" s="3">
-        <v>267000</v>
+        <v>260600</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="E57" s="3">
-        <v>21500</v>
+        <v>20900</v>
       </c>
       <c r="F57" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,10 +2045,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E58" s="3">
-        <v>28800</v>
+        <v>28100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64300</v>
+        <v>62800</v>
       </c>
       <c r="E59" s="3">
-        <v>65000</v>
+        <v>63500</v>
       </c>
       <c r="F59" s="3">
-        <v>58900</v>
+        <v>57500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>75000</v>
+        <v>73200</v>
       </c>
       <c r="E60" s="3">
-        <v>115300</v>
+        <v>112500</v>
       </c>
       <c r="F60" s="3">
-        <v>67700</v>
+        <v>66000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>84300</v>
+        <v>82300</v>
       </c>
       <c r="E61" s="3">
-        <v>52200</v>
+        <v>51000</v>
       </c>
       <c r="F61" s="3">
-        <v>25700</v>
+        <v>25100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34100</v>
+        <v>33300</v>
       </c>
       <c r="E62" s="3">
-        <v>65600</v>
+        <v>64000</v>
       </c>
       <c r="F62" s="3">
-        <v>96400</v>
+        <v>94100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>193500</v>
+        <v>188800</v>
       </c>
       <c r="E66" s="3">
-        <v>233000</v>
+        <v>227500</v>
       </c>
       <c r="F66" s="3">
-        <v>189800</v>
+        <v>185300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>75300</v>
+        <v>73500</v>
       </c>
       <c r="E72" s="3">
-        <v>-366100</v>
+        <v>-357300</v>
       </c>
       <c r="F72" s="3">
-        <v>-228500</v>
+        <v>-223100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>75500</v>
+        <v>73700</v>
       </c>
       <c r="E76" s="3">
-        <v>20100</v>
+        <v>19700</v>
       </c>
       <c r="F76" s="3">
-        <v>77200</v>
+        <v>75300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-101000</v>
+        <v>-98600</v>
       </c>
       <c r="E81" s="3">
-        <v>-141700</v>
+        <v>-138300</v>
       </c>
       <c r="F81" s="3">
-        <v>-97700</v>
+        <v>-95300</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="E83" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="F83" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-82600</v>
+        <v>-80600</v>
       </c>
       <c r="E89" s="3">
-        <v>-138300</v>
+        <v>-134900</v>
       </c>
       <c r="F89" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="E91" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="F91" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3025,10 +3025,10 @@
         <v>600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="F94" s="3">
-        <v>79100</v>
+        <v>77200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,10 +3186,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>158100</v>
+        <v>154300</v>
       </c>
       <c r="E100" s="3">
-        <v>75200</v>
+        <v>73400</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>76000</v>
+        <v>74200</v>
       </c>
       <c r="E102" s="3">
-        <v>-68800</v>
+        <v>-67100</v>
       </c>
       <c r="F102" s="3">
-        <v>56600</v>
+        <v>55200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>IMCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>40100</v>
+        <v>34600</v>
       </c>
       <c r="E8" s="3">
-        <v>34200</v>
+        <v>39300</v>
       </c>
       <c r="F8" s="3">
-        <v>31500</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>33500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>30800</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,9 +741,12 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,9 +774,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>99600</v>
+        <v>95500</v>
       </c>
       <c r="E12" s="3">
-        <v>133100</v>
+        <v>97500</v>
       </c>
       <c r="F12" s="3">
-        <v>111200</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>130300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>108900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,24 +888,27 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6300</v>
+        <v>9600</v>
       </c>
       <c r="E14" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,23 +921,26 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>12300</v>
+      <c r="D15" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>12000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>154800</v>
+        <v>210800</v>
       </c>
       <c r="E17" s="3">
-        <v>191700</v>
+        <v>151600</v>
       </c>
       <c r="F17" s="3">
-        <v>155900</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>187700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>152700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-114700</v>
+        <v>-176200</v>
       </c>
       <c r="E18" s="3">
-        <v>-157500</v>
+        <v>-112400</v>
       </c>
       <c r="F18" s="3">
-        <v>-124400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-154200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-121800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,22 +1050,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>-6600</v>
-      </c>
       <c r="F20" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>-6400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6900</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-101100</v>
+        <v>-172200</v>
       </c>
       <c r="E21" s="3">
-        <v>-151800</v>
+        <v>-98900</v>
       </c>
       <c r="F21" s="3">
-        <v>-108400</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-148500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-106100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,23 +1113,26 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="E22" s="3">
-        <v>3900</v>
+        <v>3100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-116300</v>
+        <v>-183700</v>
       </c>
       <c r="E23" s="3">
-        <v>-168000</v>
+        <v>-113900</v>
       </c>
       <c r="F23" s="3">
-        <v>-117400</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-164500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-114900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-17700</v>
+        <v>-12300</v>
       </c>
       <c r="E24" s="3">
-        <v>-29600</v>
+        <v>-17300</v>
       </c>
       <c r="F24" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>-29000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-21600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-98600</v>
+        <v>-171500</v>
       </c>
       <c r="E26" s="3">
-        <v>-138300</v>
+        <v>-96600</v>
       </c>
       <c r="F26" s="3">
-        <v>-95300</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-135500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-93400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-98600</v>
+        <v>-171500</v>
       </c>
       <c r="E27" s="3">
-        <v>-138300</v>
+        <v>-96600</v>
       </c>
       <c r="F27" s="3">
-        <v>-95300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-135500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-93400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,23 +1443,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>6600</v>
-      </c>
       <c r="F32" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>6400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-6900</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-98600</v>
+        <v>-171500</v>
       </c>
       <c r="E33" s="3">
-        <v>-138300</v>
+        <v>-96600</v>
       </c>
       <c r="F33" s="3">
-        <v>-95300</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-135500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-93400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-98600</v>
+        <v>-171500</v>
       </c>
       <c r="E35" s="3">
-        <v>-138300</v>
+        <v>-96600</v>
       </c>
       <c r="F35" s="3">
-        <v>-95300</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-135500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-93400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>172700</v>
+        <v>310100</v>
       </c>
       <c r="E41" s="3">
-        <v>98500</v>
+        <v>169100</v>
       </c>
       <c r="F41" s="3">
-        <v>165600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>96400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>162100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22200</v>
+        <v>22400</v>
       </c>
       <c r="E43" s="3">
-        <v>60700</v>
+        <v>21800</v>
       </c>
       <c r="F43" s="3">
-        <v>51300</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>59400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>50200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8700</v>
+        <v>10000</v>
       </c>
       <c r="E45" s="3">
-        <v>6300</v>
+        <v>8500</v>
       </c>
       <c r="F45" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>6200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>203600</v>
+        <v>342500</v>
       </c>
       <c r="E46" s="3">
-        <v>165400</v>
+        <v>199400</v>
       </c>
       <c r="F46" s="3">
-        <v>227900</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>162000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>223100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,23 +1841,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>49000</v>
+        <v>41100</v>
       </c>
       <c r="E48" s="3">
-        <v>73100</v>
+        <v>48000</v>
       </c>
       <c r="F48" s="3">
-        <v>27800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>71500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>27200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,24 +1907,27 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="E52" s="3">
-        <v>7800</v>
+        <v>8700</v>
       </c>
       <c r="F52" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>7700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>262500</v>
+        <v>393400</v>
       </c>
       <c r="E54" s="3">
-        <v>247100</v>
+        <v>257100</v>
       </c>
       <c r="F54" s="3">
-        <v>260600</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>242000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>255200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7700</v>
+        <v>9800</v>
       </c>
       <c r="E57" s="3">
-        <v>20900</v>
+        <v>7500</v>
       </c>
       <c r="F57" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>20500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2700</v>
       </c>
-      <c r="E58" s="3">
-        <v>28100</v>
-      </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>27500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>62800</v>
+        <v>68300</v>
       </c>
       <c r="E59" s="3">
-        <v>63500</v>
+        <v>61500</v>
       </c>
       <c r="F59" s="3">
-        <v>57500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>62100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>56300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73200</v>
+        <v>79800</v>
       </c>
       <c r="E60" s="3">
-        <v>112500</v>
+        <v>71700</v>
       </c>
       <c r="F60" s="3">
-        <v>66000</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>110200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>64700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82300</v>
+        <v>81600</v>
       </c>
       <c r="E61" s="3">
-        <v>51000</v>
+        <v>80600</v>
       </c>
       <c r="F61" s="3">
-        <v>25100</v>
+        <v>49900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>24600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33300</v>
+        <v>8400</v>
       </c>
       <c r="E62" s="3">
-        <v>64000</v>
+        <v>32600</v>
       </c>
       <c r="F62" s="3">
-        <v>94100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>62700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>92200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>188800</v>
+        <v>169800</v>
       </c>
       <c r="E66" s="3">
-        <v>227500</v>
+        <v>184900</v>
       </c>
       <c r="F66" s="3">
-        <v>185300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>222800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>181500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>73500</v>
+        <v>-53300</v>
       </c>
       <c r="E72" s="3">
-        <v>-357300</v>
+        <v>71900</v>
       </c>
       <c r="F72" s="3">
-        <v>-223100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-349900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-218400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73700</v>
+        <v>223600</v>
       </c>
       <c r="E76" s="3">
-        <v>19700</v>
+        <v>72100</v>
       </c>
       <c r="F76" s="3">
-        <v>75300</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>19300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>73800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-98600</v>
+        <v>-171500</v>
       </c>
       <c r="E81" s="3">
-        <v>-138300</v>
+        <v>-96600</v>
       </c>
       <c r="F81" s="3">
-        <v>-95300</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-135500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-93400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,22 +2899,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11900</v>
+        <v>9100</v>
       </c>
       <c r="E83" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="F83" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>12000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>8700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-80600</v>
+        <v>-125300</v>
       </c>
       <c r="E89" s="3">
-        <v>-134900</v>
+        <v>-79800</v>
       </c>
       <c r="F89" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-134100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-21700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4100</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
-        <v>-5400</v>
+        <v>-4000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-5300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>600</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
-        <v>-5500</v>
+        <v>1500</v>
       </c>
       <c r="F94" s="3">
-        <v>77200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-3400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>75600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,24 +3421,27 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>154300</v>
+        <v>266800</v>
       </c>
       <c r="E100" s="3">
-        <v>73400</v>
+        <v>151100</v>
       </c>
       <c r="F100" s="3">
+        <v>71900</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,23 +3454,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>74200</v>
+        <v>141000</v>
       </c>
       <c r="E102" s="3">
-        <v>-67100</v>
+        <v>72700</v>
       </c>
       <c r="F102" s="3">
-        <v>55200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>-65700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>54100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>34600</v>
+        <v>32400</v>
       </c>
       <c r="E8" s="3">
-        <v>39300</v>
+        <v>36700</v>
       </c>
       <c r="F8" s="3">
-        <v>33500</v>
+        <v>31300</v>
       </c>
       <c r="G8" s="3">
-        <v>30800</v>
+        <v>28900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>95500</v>
+        <v>89300</v>
       </c>
       <c r="E12" s="3">
-        <v>97500</v>
+        <v>91300</v>
       </c>
       <c r="F12" s="3">
-        <v>130300</v>
+        <v>122000</v>
       </c>
       <c r="G12" s="3">
-        <v>108900</v>
+        <v>102000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="E14" s="3">
-        <v>-6200</v>
+        <v>-5800</v>
       </c>
       <c r="F14" s="3">
         <v>400</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="G15" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>210800</v>
+        <v>197200</v>
       </c>
       <c r="E17" s="3">
-        <v>151600</v>
+        <v>141900</v>
       </c>
       <c r="F17" s="3">
-        <v>187700</v>
+        <v>175700</v>
       </c>
       <c r="G17" s="3">
-        <v>152700</v>
+        <v>142900</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-176200</v>
+        <v>-164900</v>
       </c>
       <c r="E18" s="3">
-        <v>-112400</v>
+        <v>-105100</v>
       </c>
       <c r="F18" s="3">
-        <v>-154200</v>
+        <v>-144300</v>
       </c>
       <c r="G18" s="3">
-        <v>-121800</v>
+        <v>-114000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5300</v>
+        <v>-4900</v>
       </c>
       <c r="E20" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="3">
-        <v>-6400</v>
+        <v>-6000</v>
       </c>
       <c r="G20" s="3">
-        <v>6900</v>
+        <v>6400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-172200</v>
+        <v>-161200</v>
       </c>
       <c r="E21" s="3">
-        <v>-98900</v>
+        <v>-92600</v>
       </c>
       <c r="F21" s="3">
-        <v>-148500</v>
+        <v>-139100</v>
       </c>
       <c r="G21" s="3">
-        <v>-106100</v>
+        <v>-99400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F22" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-183700</v>
+        <v>-171900</v>
       </c>
       <c r="E23" s="3">
-        <v>-113900</v>
+        <v>-106600</v>
       </c>
       <c r="F23" s="3">
-        <v>-164500</v>
+        <v>-153900</v>
       </c>
       <c r="G23" s="3">
-        <v>-114900</v>
+        <v>-107600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
       </c>
       <c r="E24" s="3">
-        <v>-17300</v>
+        <v>-16200</v>
       </c>
       <c r="F24" s="3">
-        <v>-29000</v>
+        <v>-27200</v>
       </c>
       <c r="G24" s="3">
-        <v>-21600</v>
+        <v>-20200</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-171500</v>
+        <v>-160400</v>
       </c>
       <c r="E26" s="3">
-        <v>-96600</v>
+        <v>-90400</v>
       </c>
       <c r="F26" s="3">
-        <v>-135500</v>
+        <v>-126800</v>
       </c>
       <c r="G26" s="3">
-        <v>-93400</v>
+        <v>-87400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-171500</v>
+        <v>-160400</v>
       </c>
       <c r="E27" s="3">
-        <v>-96600</v>
+        <v>-90400</v>
       </c>
       <c r="F27" s="3">
-        <v>-135500</v>
+        <v>-126800</v>
       </c>
       <c r="G27" s="3">
-        <v>-93400</v>
+        <v>-87400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F32" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="G32" s="3">
-        <v>-6900</v>
+        <v>-6400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-171500</v>
+        <v>-160400</v>
       </c>
       <c r="E33" s="3">
-        <v>-96600</v>
+        <v>-90400</v>
       </c>
       <c r="F33" s="3">
-        <v>-135500</v>
+        <v>-126800</v>
       </c>
       <c r="G33" s="3">
-        <v>-93400</v>
+        <v>-87400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-171500</v>
+        <v>-160400</v>
       </c>
       <c r="E35" s="3">
-        <v>-96600</v>
+        <v>-90400</v>
       </c>
       <c r="F35" s="3">
-        <v>-135500</v>
+        <v>-126800</v>
       </c>
       <c r="G35" s="3">
-        <v>-93400</v>
+        <v>-87400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>310100</v>
+        <v>290200</v>
       </c>
       <c r="E41" s="3">
-        <v>169100</v>
+        <v>158200</v>
       </c>
       <c r="F41" s="3">
-        <v>96400</v>
+        <v>90200</v>
       </c>
       <c r="G41" s="3">
-        <v>162100</v>
+        <v>151700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22400</v>
+        <v>20900</v>
       </c>
       <c r="E43" s="3">
-        <v>21800</v>
+        <v>20400</v>
       </c>
       <c r="F43" s="3">
-        <v>59400</v>
+        <v>55600</v>
       </c>
       <c r="G43" s="3">
-        <v>50200</v>
+        <v>47000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="E45" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="F45" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G45" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>342500</v>
+        <v>320500</v>
       </c>
       <c r="E46" s="3">
-        <v>199400</v>
+        <v>186600</v>
       </c>
       <c r="F46" s="3">
-        <v>162000</v>
+        <v>151600</v>
       </c>
       <c r="G46" s="3">
-        <v>223100</v>
+        <v>208800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1854,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41100</v>
+        <v>38500</v>
       </c>
       <c r="E48" s="3">
-        <v>48000</v>
+        <v>44900</v>
       </c>
       <c r="F48" s="3">
-        <v>71500</v>
+        <v>66900</v>
       </c>
       <c r="G48" s="3">
-        <v>27200</v>
+        <v>25500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="E52" s="3">
-        <v>8700</v>
+        <v>8100</v>
       </c>
       <c r="F52" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="G52" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>393400</v>
+        <v>368100</v>
       </c>
       <c r="E54" s="3">
-        <v>257100</v>
+        <v>240600</v>
       </c>
       <c r="F54" s="3">
-        <v>242000</v>
+        <v>226500</v>
       </c>
       <c r="G54" s="3">
-        <v>255200</v>
+        <v>238800</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="E57" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="F57" s="3">
-        <v>20500</v>
+        <v>19200</v>
       </c>
       <c r="G57" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,13 +2178,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="F58" s="3">
-        <v>27500</v>
+        <v>25700</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>68300</v>
+        <v>64000</v>
       </c>
       <c r="E59" s="3">
-        <v>61500</v>
+        <v>57500</v>
       </c>
       <c r="F59" s="3">
-        <v>62100</v>
+        <v>58200</v>
       </c>
       <c r="G59" s="3">
-        <v>56300</v>
+        <v>52700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>79800</v>
+        <v>74600</v>
       </c>
       <c r="E60" s="3">
-        <v>71700</v>
+        <v>67100</v>
       </c>
       <c r="F60" s="3">
-        <v>110200</v>
+        <v>103100</v>
       </c>
       <c r="G60" s="3">
-        <v>64700</v>
+        <v>60500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>81600</v>
+        <v>76300</v>
       </c>
       <c r="E61" s="3">
-        <v>80600</v>
+        <v>75400</v>
       </c>
       <c r="F61" s="3">
-        <v>49900</v>
+        <v>46700</v>
       </c>
       <c r="G61" s="3">
-        <v>24600</v>
+        <v>23000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="E62" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="F62" s="3">
-        <v>62700</v>
+        <v>58600</v>
       </c>
       <c r="G62" s="3">
-        <v>92200</v>
+        <v>86300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>158900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>173000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>208500</v>
+      </c>
+      <c r="G66" s="3">
         <v>169800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>184900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>222800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>181500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-53300</v>
+        <v>-49900</v>
       </c>
       <c r="E72" s="3">
-        <v>71900</v>
+        <v>67300</v>
       </c>
       <c r="F72" s="3">
-        <v>-349900</v>
+        <v>-327500</v>
       </c>
       <c r="G72" s="3">
-        <v>-218400</v>
+        <v>-204400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>223600</v>
+        <v>209300</v>
       </c>
       <c r="E76" s="3">
-        <v>72100</v>
+        <v>67500</v>
       </c>
       <c r="F76" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="G76" s="3">
-        <v>73800</v>
+        <v>69000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-171500</v>
+        <v>-160400</v>
       </c>
       <c r="E81" s="3">
-        <v>-96600</v>
+        <v>-90400</v>
       </c>
       <c r="F81" s="3">
-        <v>-135500</v>
+        <v>-126800</v>
       </c>
       <c r="G81" s="3">
-        <v>-93400</v>
+        <v>-87400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="E83" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="F83" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="G83" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-125300</v>
+        <v>-117200</v>
       </c>
       <c r="E89" s="3">
-        <v>-79800</v>
+        <v>-74700</v>
       </c>
       <c r="F89" s="3">
-        <v>-134100</v>
+        <v>-125500</v>
       </c>
       <c r="G89" s="3">
-        <v>-21700</v>
+        <v>-20300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="F91" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="G94" s="3">
-        <v>75600</v>
+        <v>70800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,13 +3431,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>266800</v>
+        <v>249600</v>
       </c>
       <c r="E100" s="3">
-        <v>151100</v>
+        <v>141400</v>
       </c>
       <c r="F100" s="3">
-        <v>71900</v>
+        <v>67200</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>141000</v>
+        <v>132000</v>
       </c>
       <c r="E102" s="3">
-        <v>72700</v>
+        <v>68000</v>
       </c>
       <c r="F102" s="3">
-        <v>-65700</v>
+        <v>-61500</v>
       </c>
       <c r="G102" s="3">
-        <v>54100</v>
+        <v>50600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>32400</v>
+        <v>31400</v>
       </c>
       <c r="E8" s="3">
-        <v>36700</v>
+        <v>35600</v>
       </c>
       <c r="F8" s="3">
-        <v>31300</v>
+        <v>30400</v>
       </c>
       <c r="G8" s="3">
-        <v>28900</v>
+        <v>28000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>89300</v>
+        <v>86600</v>
       </c>
       <c r="E12" s="3">
-        <v>91300</v>
+        <v>88500</v>
       </c>
       <c r="F12" s="3">
-        <v>122000</v>
+        <v>118300</v>
       </c>
       <c r="G12" s="3">
-        <v>102000</v>
+        <v>98900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="E14" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="F14" s="3">
         <v>400</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="G15" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>197200</v>
+        <v>191300</v>
       </c>
       <c r="E17" s="3">
-        <v>141900</v>
+        <v>137600</v>
       </c>
       <c r="F17" s="3">
-        <v>175700</v>
+        <v>170300</v>
       </c>
       <c r="G17" s="3">
-        <v>142900</v>
+        <v>138500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-164900</v>
+        <v>-159900</v>
       </c>
       <c r="E18" s="3">
-        <v>-105100</v>
+        <v>-102000</v>
       </c>
       <c r="F18" s="3">
-        <v>-144300</v>
+        <v>-140000</v>
       </c>
       <c r="G18" s="3">
-        <v>-114000</v>
+        <v>-110500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="E20" s="3">
         <v>1500</v>
       </c>
       <c r="F20" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="G20" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-161200</v>
+        <v>-156400</v>
       </c>
       <c r="E21" s="3">
-        <v>-92600</v>
+        <v>-89900</v>
       </c>
       <c r="F21" s="3">
-        <v>-139100</v>
+        <v>-134900</v>
       </c>
       <c r="G21" s="3">
-        <v>-99400</v>
+        <v>-96400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F22" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-171900</v>
+        <v>-166700</v>
       </c>
       <c r="E23" s="3">
-        <v>-106600</v>
+        <v>-103300</v>
       </c>
       <c r="F23" s="3">
-        <v>-153900</v>
+        <v>-149300</v>
       </c>
       <c r="G23" s="3">
-        <v>-107600</v>
+        <v>-104300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-11500</v>
+        <v>-11100</v>
       </c>
       <c r="E24" s="3">
-        <v>-16200</v>
+        <v>-15700</v>
       </c>
       <c r="F24" s="3">
-        <v>-27200</v>
+        <v>-26300</v>
       </c>
       <c r="G24" s="3">
-        <v>-20200</v>
+        <v>-19600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-160400</v>
+        <v>-155600</v>
       </c>
       <c r="E26" s="3">
-        <v>-90400</v>
+        <v>-87600</v>
       </c>
       <c r="F26" s="3">
-        <v>-126800</v>
+        <v>-122900</v>
       </c>
       <c r="G26" s="3">
-        <v>-87400</v>
+        <v>-84700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-160400</v>
+        <v>-155600</v>
       </c>
       <c r="E27" s="3">
-        <v>-90400</v>
+        <v>-87600</v>
       </c>
       <c r="F27" s="3">
-        <v>-126800</v>
+        <v>-122900</v>
       </c>
       <c r="G27" s="3">
-        <v>-87400</v>
+        <v>-84700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E32" s="3">
         <v>-1500</v>
       </c>
       <c r="F32" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="G32" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-160400</v>
+        <v>-155600</v>
       </c>
       <c r="E33" s="3">
-        <v>-90400</v>
+        <v>-87600</v>
       </c>
       <c r="F33" s="3">
-        <v>-126800</v>
+        <v>-122900</v>
       </c>
       <c r="G33" s="3">
-        <v>-87400</v>
+        <v>-84700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-160400</v>
+        <v>-155600</v>
       </c>
       <c r="E35" s="3">
-        <v>-90400</v>
+        <v>-87600</v>
       </c>
       <c r="F35" s="3">
-        <v>-126800</v>
+        <v>-122900</v>
       </c>
       <c r="G35" s="3">
-        <v>-87400</v>
+        <v>-84700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>290200</v>
+        <v>281400</v>
       </c>
       <c r="E41" s="3">
-        <v>158200</v>
+        <v>153400</v>
       </c>
       <c r="F41" s="3">
-        <v>90200</v>
+        <v>87500</v>
       </c>
       <c r="G41" s="3">
-        <v>151700</v>
+        <v>147100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20900</v>
+        <v>20300</v>
       </c>
       <c r="E43" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="F43" s="3">
-        <v>55600</v>
+        <v>53900</v>
       </c>
       <c r="G43" s="3">
-        <v>47000</v>
+        <v>45600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="E45" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="F45" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="G45" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>320500</v>
+        <v>310800</v>
       </c>
       <c r="E46" s="3">
-        <v>186600</v>
+        <v>180900</v>
       </c>
       <c r="F46" s="3">
-        <v>151600</v>
+        <v>147000</v>
       </c>
       <c r="G46" s="3">
-        <v>208800</v>
+        <v>202500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38500</v>
+        <v>37300</v>
       </c>
       <c r="E48" s="3">
-        <v>44900</v>
+        <v>43600</v>
       </c>
       <c r="F48" s="3">
-        <v>66900</v>
+        <v>64900</v>
       </c>
       <c r="G48" s="3">
-        <v>25500</v>
+        <v>24700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="E52" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="F52" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="G52" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>368100</v>
+        <v>357000</v>
       </c>
       <c r="E54" s="3">
-        <v>240600</v>
+        <v>233300</v>
       </c>
       <c r="F54" s="3">
-        <v>226500</v>
+        <v>219600</v>
       </c>
       <c r="G54" s="3">
-        <v>238800</v>
+        <v>231600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="E57" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="F57" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="G57" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2181,10 +2181,10 @@
         <v>1500</v>
       </c>
       <c r="E58" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F58" s="3">
-        <v>25700</v>
+        <v>25000</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64000</v>
+        <v>62000</v>
       </c>
       <c r="E59" s="3">
-        <v>57500</v>
+        <v>55800</v>
       </c>
       <c r="F59" s="3">
-        <v>58200</v>
+        <v>56400</v>
       </c>
       <c r="G59" s="3">
-        <v>52700</v>
+        <v>51100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74600</v>
+        <v>72400</v>
       </c>
       <c r="E60" s="3">
-        <v>67100</v>
+        <v>65100</v>
       </c>
       <c r="F60" s="3">
-        <v>103100</v>
+        <v>100000</v>
       </c>
       <c r="G60" s="3">
-        <v>60500</v>
+        <v>58700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>76300</v>
+        <v>74000</v>
       </c>
       <c r="E61" s="3">
-        <v>75400</v>
+        <v>73200</v>
       </c>
       <c r="F61" s="3">
-        <v>46700</v>
+        <v>45300</v>
       </c>
       <c r="G61" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="E62" s="3">
-        <v>30500</v>
+        <v>29600</v>
       </c>
       <c r="F62" s="3">
-        <v>58600</v>
+        <v>56900</v>
       </c>
       <c r="G62" s="3">
-        <v>86300</v>
+        <v>83600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>158900</v>
+        <v>154000</v>
       </c>
       <c r="E66" s="3">
-        <v>173000</v>
+        <v>167800</v>
       </c>
       <c r="F66" s="3">
-        <v>208500</v>
+        <v>202100</v>
       </c>
       <c r="G66" s="3">
-        <v>169800</v>
+        <v>164700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-49900</v>
+        <v>-48300</v>
       </c>
       <c r="E72" s="3">
-        <v>67300</v>
+        <v>65300</v>
       </c>
       <c r="F72" s="3">
-        <v>-327500</v>
+        <v>-317500</v>
       </c>
       <c r="G72" s="3">
-        <v>-204400</v>
+        <v>-198200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>209300</v>
+        <v>202900</v>
       </c>
       <c r="E76" s="3">
-        <v>67500</v>
+        <v>65500</v>
       </c>
       <c r="F76" s="3">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="G76" s="3">
-        <v>69000</v>
+        <v>66900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-160400</v>
+        <v>-155600</v>
       </c>
       <c r="E81" s="3">
-        <v>-90400</v>
+        <v>-87600</v>
       </c>
       <c r="F81" s="3">
-        <v>-126800</v>
+        <v>-122900</v>
       </c>
       <c r="G81" s="3">
-        <v>-87400</v>
+        <v>-84700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="E83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F83" s="3">
         <v>10900</v>
       </c>
-      <c r="F83" s="3">
-        <v>11200</v>
-      </c>
       <c r="G83" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-117200</v>
+        <v>-113700</v>
       </c>
       <c r="E89" s="3">
-        <v>-74700</v>
+        <v>-72500</v>
       </c>
       <c r="F89" s="3">
-        <v>-125500</v>
+        <v>-121700</v>
       </c>
       <c r="G89" s="3">
-        <v>-20300</v>
+        <v>-19700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3155,13 +3155,13 @@
         <v>-1200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="F91" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="G91" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3257,10 +3257,10 @@
         <v>1400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G94" s="3">
-        <v>70800</v>
+        <v>68600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,13 +3431,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>249600</v>
+        <v>242100</v>
       </c>
       <c r="E100" s="3">
-        <v>141400</v>
+        <v>137100</v>
       </c>
       <c r="F100" s="3">
-        <v>67200</v>
+        <v>65200</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>132000</v>
+        <v>128000</v>
       </c>
       <c r="E102" s="3">
-        <v>68000</v>
+        <v>65900</v>
       </c>
       <c r="F102" s="3">
-        <v>-61500</v>
+        <v>-59600</v>
       </c>
       <c r="G102" s="3">
-        <v>50600</v>
+        <v>49100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>31400</v>
+        <v>31100</v>
       </c>
       <c r="E8" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="F8" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="G8" s="3">
-        <v>28000</v>
+        <v>27700</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>86600</v>
+        <v>85800</v>
       </c>
       <c r="E12" s="3">
-        <v>88500</v>
+        <v>87600</v>
       </c>
       <c r="F12" s="3">
-        <v>118300</v>
+        <v>117100</v>
       </c>
       <c r="G12" s="3">
-        <v>98900</v>
+        <v>97900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E14" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="F14" s="3">
         <v>400</v>
@@ -931,13 +931,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="G15" s="3">
         <v>7900</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>191300</v>
+        <v>189400</v>
       </c>
       <c r="E17" s="3">
-        <v>137600</v>
+        <v>136200</v>
       </c>
       <c r="F17" s="3">
-        <v>170300</v>
+        <v>168700</v>
       </c>
       <c r="G17" s="3">
-        <v>138500</v>
+        <v>137200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-159900</v>
+        <v>-158300</v>
       </c>
       <c r="E18" s="3">
-        <v>-102000</v>
+        <v>-101000</v>
       </c>
       <c r="F18" s="3">
-        <v>-140000</v>
+        <v>-138600</v>
       </c>
       <c r="G18" s="3">
-        <v>-110500</v>
+        <v>-109500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="E20" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F20" s="3">
         <v>-5800</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-156400</v>
+        <v>-155100</v>
       </c>
       <c r="E21" s="3">
-        <v>-89900</v>
+        <v>-89300</v>
       </c>
       <c r="F21" s="3">
-        <v>-134900</v>
+        <v>-133900</v>
       </c>
       <c r="G21" s="3">
-        <v>-96400</v>
+        <v>-95700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-166700</v>
+        <v>-165100</v>
       </c>
       <c r="E23" s="3">
+        <v>-102300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-147800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-103300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-149300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-104300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="E24" s="3">
-        <v>-15700</v>
+        <v>-15500</v>
       </c>
       <c r="F24" s="3">
-        <v>-26300</v>
+        <v>-26100</v>
       </c>
       <c r="G24" s="3">
-        <v>-19600</v>
+        <v>-19400</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-155600</v>
+        <v>-154100</v>
       </c>
       <c r="E26" s="3">
-        <v>-87600</v>
+        <v>-86800</v>
       </c>
       <c r="F26" s="3">
-        <v>-122900</v>
+        <v>-121700</v>
       </c>
       <c r="G26" s="3">
-        <v>-84700</v>
+        <v>-83900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-155600</v>
+        <v>-154100</v>
       </c>
       <c r="E27" s="3">
-        <v>-87600</v>
+        <v>-86800</v>
       </c>
       <c r="F27" s="3">
-        <v>-122900</v>
+        <v>-121700</v>
       </c>
       <c r="G27" s="3">
-        <v>-84700</v>
+        <v>-83900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F32" s="3">
         <v>5800</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-155600</v>
+        <v>-154100</v>
       </c>
       <c r="E33" s="3">
-        <v>-87600</v>
+        <v>-86800</v>
       </c>
       <c r="F33" s="3">
-        <v>-122900</v>
+        <v>-121700</v>
       </c>
       <c r="G33" s="3">
-        <v>-84700</v>
+        <v>-83900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-155600</v>
+        <v>-154100</v>
       </c>
       <c r="E35" s="3">
-        <v>-87600</v>
+        <v>-86800</v>
       </c>
       <c r="F35" s="3">
-        <v>-122900</v>
+        <v>-121700</v>
       </c>
       <c r="G35" s="3">
-        <v>-84700</v>
+        <v>-83900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>281400</v>
+        <v>278600</v>
       </c>
       <c r="E41" s="3">
-        <v>153400</v>
+        <v>151900</v>
       </c>
       <c r="F41" s="3">
-        <v>87500</v>
+        <v>86600</v>
       </c>
       <c r="G41" s="3">
-        <v>147100</v>
+        <v>145700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E43" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="F43" s="3">
-        <v>53900</v>
+        <v>53400</v>
       </c>
       <c r="G43" s="3">
-        <v>45600</v>
+        <v>45100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="E45" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="F45" s="3">
         <v>5600</v>
       </c>
       <c r="G45" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>310800</v>
+        <v>307700</v>
       </c>
       <c r="E46" s="3">
-        <v>180900</v>
+        <v>179100</v>
       </c>
       <c r="F46" s="3">
-        <v>147000</v>
+        <v>145600</v>
       </c>
       <c r="G46" s="3">
-        <v>202500</v>
+        <v>200500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37300</v>
+        <v>36900</v>
       </c>
       <c r="E48" s="3">
-        <v>43600</v>
+        <v>43200</v>
       </c>
       <c r="F48" s="3">
-        <v>64900</v>
+        <v>64300</v>
       </c>
       <c r="G48" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="E52" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="F52" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="G52" s="3">
         <v>4000</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>357000</v>
+        <v>353500</v>
       </c>
       <c r="E54" s="3">
-        <v>233300</v>
+        <v>231000</v>
       </c>
       <c r="F54" s="3">
-        <v>219600</v>
+        <v>217500</v>
       </c>
       <c r="G54" s="3">
-        <v>231600</v>
+        <v>229300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="E57" s="3">
         <v>6800</v>
       </c>
       <c r="F57" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="G57" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2184,7 +2184,7 @@
         <v>2400</v>
       </c>
       <c r="F58" s="3">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>62000</v>
+        <v>61400</v>
       </c>
       <c r="E59" s="3">
+        <v>55300</v>
+      </c>
+      <c r="F59" s="3">
         <v>55800</v>
       </c>
-      <c r="F59" s="3">
-        <v>56400</v>
-      </c>
       <c r="G59" s="3">
-        <v>51100</v>
+        <v>50600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>72400</v>
+        <v>71700</v>
       </c>
       <c r="E60" s="3">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="F60" s="3">
-        <v>100000</v>
+        <v>99000</v>
       </c>
       <c r="G60" s="3">
-        <v>58700</v>
+        <v>58100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74000</v>
+        <v>73300</v>
       </c>
       <c r="E61" s="3">
-        <v>73200</v>
+        <v>72400</v>
       </c>
       <c r="F61" s="3">
-        <v>45300</v>
+        <v>44900</v>
       </c>
       <c r="G61" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2313,13 +2313,13 @@
         <v>7600</v>
       </c>
       <c r="E62" s="3">
-        <v>29600</v>
+        <v>29300</v>
       </c>
       <c r="F62" s="3">
-        <v>56900</v>
+        <v>56300</v>
       </c>
       <c r="G62" s="3">
-        <v>83600</v>
+        <v>82800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>154000</v>
+        <v>152500</v>
       </c>
       <c r="E66" s="3">
-        <v>167800</v>
+        <v>166100</v>
       </c>
       <c r="F66" s="3">
-        <v>202100</v>
+        <v>200100</v>
       </c>
       <c r="G66" s="3">
-        <v>164700</v>
+        <v>163000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-48300</v>
+        <v>-47900</v>
       </c>
       <c r="E72" s="3">
-        <v>65300</v>
+        <v>64600</v>
       </c>
       <c r="F72" s="3">
-        <v>-317500</v>
+        <v>-314400</v>
       </c>
       <c r="G72" s="3">
-        <v>-198200</v>
+        <v>-196300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>202900</v>
+        <v>200900</v>
       </c>
       <c r="E76" s="3">
-        <v>65500</v>
+        <v>64800</v>
       </c>
       <c r="F76" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="G76" s="3">
-        <v>66900</v>
+        <v>66300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-155600</v>
+        <v>-154100</v>
       </c>
       <c r="E81" s="3">
-        <v>-87600</v>
+        <v>-86800</v>
       </c>
       <c r="F81" s="3">
-        <v>-122900</v>
+        <v>-121700</v>
       </c>
       <c r="G81" s="3">
-        <v>-84700</v>
+        <v>-83900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="E83" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="F83" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="G83" s="3">
         <v>7900</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-113700</v>
+        <v>-112600</v>
       </c>
       <c r="E89" s="3">
-        <v>-72500</v>
+        <v>-71700</v>
       </c>
       <c r="F89" s="3">
-        <v>-121700</v>
+        <v>-120500</v>
       </c>
       <c r="G89" s="3">
-        <v>-19700</v>
+        <v>-19500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3254,13 +3254,13 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F94" s="3">
         <v>-3100</v>
       </c>
       <c r="G94" s="3">
-        <v>68600</v>
+        <v>68000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,13 +3431,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>242100</v>
+        <v>239700</v>
       </c>
       <c r="E100" s="3">
-        <v>137100</v>
+        <v>135800</v>
       </c>
       <c r="F100" s="3">
-        <v>65200</v>
+        <v>64600</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>128000</v>
+        <v>126700</v>
       </c>
       <c r="E102" s="3">
-        <v>65900</v>
+        <v>65300</v>
       </c>
       <c r="F102" s="3">
-        <v>-59600</v>
+        <v>-59100</v>
       </c>
       <c r="G102" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="92">
   <si>
     <t>IMCR</t>
   </si>
@@ -717,17 +717,17 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>31100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>35300</v>
-      </c>
-      <c r="F8" s="3">
-        <v>30100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>27700</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -831,17 +831,17 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>85800</v>
-      </c>
-      <c r="E12" s="3">
-        <v>87600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>117100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>97900</v>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -897,17 +897,17 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>8700</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="F14" s="3">
-        <v>400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>200</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -930,17 +930,17 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>8200</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
-        <v>10800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7900</v>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -975,17 +975,17 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>189400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>136200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>168700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>137200</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1008,17 +1008,17 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-158300</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-101000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-138600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-109500</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1056,17 +1056,17 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>6200</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1089,17 +1089,17 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-155100</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-89300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-133900</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-95700</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1122,17 +1122,17 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1155,17 +1155,17 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-165100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-102300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-147800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-103300</v>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1188,17 +1188,17 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-26100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-19400</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1254,17 +1254,17 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-154100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-86800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-121700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-83900</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1287,17 +1287,17 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-154100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-86800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-121700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-83900</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1353,26 +1353,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,17 +1452,17 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>4700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-6200</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1485,17 +1485,17 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-154100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-86800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-121700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-83900</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1551,17 +1551,17 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-154100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-86800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-121700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-83900</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1652,17 +1652,17 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>278600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>151900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>86600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>145700</v>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1685,26 +1685,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1718,17 +1718,17 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>20100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>19600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>53400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>45100</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1751,26 +1751,26 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1784,17 +1784,17 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>9000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>7600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>9700</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1817,17 +1817,17 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>307700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>179100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>145600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200500</v>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1850,17 +1850,17 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>900</v>
-      </c>
-      <c r="F47" s="3">
-        <v>700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1883,17 +1883,17 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>36900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>43200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>64300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>24400</v>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1919,14 +1919,14 @@
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>400</v>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2015,17 +2015,17 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>8800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4000</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2081,17 +2081,17 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>353500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>231000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>217500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>229300</v>
+      <c r="D54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2144,17 +2144,17 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>8800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>6800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>18400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>7500</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2177,17 +2177,17 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>24700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2210,17 +2210,17 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>61400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>55300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>55800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>50600</v>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2243,17 +2243,17 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>71700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>64400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>99000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>58100</v>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73300</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>72400</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>44900</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>22100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2309,17 +2309,17 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>7600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>29300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>56300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>82800</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2441,17 +2441,17 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>152500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>166100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>163000</v>
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2621,17 +2621,17 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-47900</v>
-      </c>
-      <c r="E72" s="3">
-        <v>64600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-314400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-196300</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2753,17 +2753,17 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>200900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>64800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>17300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>66300</v>
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2857,17 +2857,17 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-154100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-86800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-121700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-83900</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2905,17 +2905,17 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>8200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>10500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>10800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7900</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3103,17 +3103,17 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-112600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-71700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-120500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-19500</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3151,17 +3151,17 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4100</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3250,17 +3250,17 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>68000</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3430,17 +3430,17 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>239700</v>
-      </c>
-      <c r="E100" s="3">
-        <v>135800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>64600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3463,17 +3463,17 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3496,17 +3496,17 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>126700</v>
-      </c>
-      <c r="E102" s="3">
-        <v>65300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-59100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>48600</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="92">
   <si>
     <t>IMCR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>178300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>32900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>37400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>31900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>29300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,14 +747,17 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>600</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -777,14 +783,17 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>177800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,25 +838,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>90900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>92800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>124100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>103700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,26 +907,29 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -924,26 +943,29 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>144300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>178700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>145300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-167700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-106900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-146800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-116000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,25 +1083,26 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6500</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-94200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-141400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-101000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,26 +1152,29 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1149,26 +1188,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-174900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-108400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-156600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-109400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,26 +1224,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-20500</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-88900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-88900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,42 +1404,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,26 +1512,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-6500</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-88900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-88900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>412600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>295200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>161000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>91800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>154300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,59 +1765,65 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>20700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>56600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>47800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,14 +1837,17 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>1200</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1772,32 +1867,35 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>10300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>486200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>326000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>189800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>154200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>212400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,26 +1945,29 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>68100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>25900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,26 +2017,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>500</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,26 +2125,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>540400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>374400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>244700</v>
+      </c>
+      <c r="G54" s="3">
+        <v>230400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>242900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>8000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>26200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>65100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>58500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>59200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>53600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>103100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>75900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>68200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>104900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>61600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,26 +2409,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>84100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>77700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>76700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>47500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>31000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>59600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>87700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>194500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>161600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>176000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>212000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>172700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>68500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-333100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-207900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>345900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>212900</v>
+      </c>
+      <c r="F76" s="3">
+        <v>68700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>70200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-88900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,25 +3097,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>8300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-20600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,25 +3365,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>72000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>253900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>143900</v>
+      </c>
+      <c r="G100" s="3">
+        <v>68400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,26 +3702,29 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>134200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>69200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>51500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>178300</v>
+        <v>182200</v>
       </c>
       <c r="E8" s="3">
-        <v>32900</v>
+        <v>33600</v>
       </c>
       <c r="F8" s="3">
-        <v>37400</v>
+        <v>38200</v>
       </c>
       <c r="G8" s="3">
-        <v>31900</v>
+        <v>32500</v>
       </c>
       <c r="H8" s="3">
-        <v>29300</v>
+        <v>30000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>177800</v>
+        <v>181600</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>110600</v>
+        <v>113000</v>
       </c>
       <c r="E12" s="3">
-        <v>90900</v>
+        <v>92800</v>
       </c>
       <c r="F12" s="3">
-        <v>92800</v>
+        <v>94800</v>
       </c>
       <c r="G12" s="3">
-        <v>124100</v>
+        <v>126700</v>
       </c>
       <c r="H12" s="3">
-        <v>103700</v>
+        <v>105900</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="E14" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="F14" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="G14" s="3">
         <v>400</v>
@@ -953,19 +953,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E15" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="H15" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>227500</v>
+        <v>232400</v>
       </c>
       <c r="E17" s="3">
-        <v>200600</v>
+        <v>204900</v>
       </c>
       <c r="F17" s="3">
-        <v>144300</v>
+        <v>147400</v>
       </c>
       <c r="G17" s="3">
-        <v>178700</v>
+        <v>182500</v>
       </c>
       <c r="H17" s="3">
-        <v>145300</v>
+        <v>148400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-49100</v>
+        <v>-50200</v>
       </c>
       <c r="E18" s="3">
-        <v>-167700</v>
+        <v>-171300</v>
       </c>
       <c r="F18" s="3">
-        <v>-106900</v>
+        <v>-109200</v>
       </c>
       <c r="G18" s="3">
-        <v>-146800</v>
+        <v>-149900</v>
       </c>
       <c r="H18" s="3">
-        <v>-116000</v>
+        <v>-118400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="E20" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="F20" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G20" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="H20" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-44900</v>
+        <v>-45900</v>
       </c>
       <c r="E21" s="3">
-        <v>-164000</v>
+        <v>-167500</v>
       </c>
       <c r="F21" s="3">
-        <v>-94200</v>
+        <v>-96300</v>
       </c>
       <c r="G21" s="3">
-        <v>-141400</v>
+        <v>-144500</v>
       </c>
       <c r="H21" s="3">
-        <v>-101000</v>
+        <v>-103200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>2200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2100</v>
       </c>
       <c r="F22" s="3">
         <v>3000</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-54800</v>
+        <v>-55900</v>
       </c>
       <c r="E23" s="3">
-        <v>-174900</v>
+        <v>-178600</v>
       </c>
       <c r="F23" s="3">
-        <v>-108400</v>
+        <v>-110700</v>
       </c>
       <c r="G23" s="3">
-        <v>-156600</v>
+        <v>-159900</v>
       </c>
       <c r="H23" s="3">
-        <v>-109400</v>
+        <v>-111700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E24" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="F24" s="3">
-        <v>-16500</v>
+        <v>-16800</v>
       </c>
       <c r="G24" s="3">
-        <v>-27600</v>
+        <v>-28200</v>
       </c>
       <c r="H24" s="3">
-        <v>-20500</v>
+        <v>-21000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-51200</v>
+        <v>-52200</v>
       </c>
       <c r="E26" s="3">
-        <v>-163200</v>
+        <v>-166700</v>
       </c>
       <c r="F26" s="3">
-        <v>-91900</v>
+        <v>-93900</v>
       </c>
       <c r="G26" s="3">
-        <v>-129000</v>
+        <v>-131700</v>
       </c>
       <c r="H26" s="3">
-        <v>-88900</v>
+        <v>-90800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-51200</v>
+        <v>-52200</v>
       </c>
       <c r="E27" s="3">
-        <v>-163200</v>
+        <v>-166700</v>
       </c>
       <c r="F27" s="3">
-        <v>-91900</v>
+        <v>-93900</v>
       </c>
       <c r="G27" s="3">
-        <v>-129000</v>
+        <v>-131700</v>
       </c>
       <c r="H27" s="3">
-        <v>-88900</v>
+        <v>-90800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E32" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G32" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H32" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-51200</v>
+        <v>-52200</v>
       </c>
       <c r="E33" s="3">
-        <v>-163200</v>
+        <v>-166700</v>
       </c>
       <c r="F33" s="3">
-        <v>-91900</v>
+        <v>-93900</v>
       </c>
       <c r="G33" s="3">
-        <v>-129000</v>
+        <v>-131700</v>
       </c>
       <c r="H33" s="3">
-        <v>-88900</v>
+        <v>-90800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-51200</v>
+        <v>-52200</v>
       </c>
       <c r="E35" s="3">
-        <v>-163200</v>
+        <v>-166700</v>
       </c>
       <c r="F35" s="3">
-        <v>-91900</v>
+        <v>-93900</v>
       </c>
       <c r="G35" s="3">
-        <v>-129000</v>
+        <v>-131700</v>
       </c>
       <c r="H35" s="3">
-        <v>-88900</v>
+        <v>-90800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>412600</v>
+        <v>421400</v>
       </c>
       <c r="E41" s="3">
-        <v>295200</v>
+        <v>301500</v>
       </c>
       <c r="F41" s="3">
-        <v>161000</v>
+        <v>164400</v>
       </c>
       <c r="G41" s="3">
-        <v>91800</v>
+        <v>93700</v>
       </c>
       <c r="H41" s="3">
-        <v>154300</v>
+        <v>157600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>58400</v>
+        <v>59700</v>
       </c>
       <c r="E43" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="F43" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="G43" s="3">
-        <v>56600</v>
+        <v>57800</v>
       </c>
       <c r="H43" s="3">
-        <v>47800</v>
+        <v>48800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="E45" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="F45" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="G45" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H45" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>486200</v>
+        <v>496600</v>
       </c>
       <c r="E46" s="3">
-        <v>326000</v>
+        <v>333000</v>
       </c>
       <c r="F46" s="3">
-        <v>189800</v>
+        <v>193800</v>
       </c>
       <c r="G46" s="3">
-        <v>154200</v>
+        <v>157500</v>
       </c>
       <c r="H46" s="3">
-        <v>212400</v>
+        <v>216900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39300</v>
+        <v>40100</v>
       </c>
       <c r="E48" s="3">
-        <v>39100</v>
+        <v>40000</v>
       </c>
       <c r="F48" s="3">
-        <v>45700</v>
+        <v>46700</v>
       </c>
       <c r="G48" s="3">
-        <v>68100</v>
+        <v>69500</v>
       </c>
       <c r="H48" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="E52" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="F52" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="G52" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="H52" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>540400</v>
+        <v>551900</v>
       </c>
       <c r="E54" s="3">
-        <v>374400</v>
+        <v>382400</v>
       </c>
       <c r="F54" s="3">
-        <v>244700</v>
+        <v>249900</v>
       </c>
       <c r="G54" s="3">
-        <v>230400</v>
+        <v>235300</v>
       </c>
       <c r="H54" s="3">
-        <v>242900</v>
+        <v>248100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="E57" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="F57" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G57" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="H57" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,16 +2311,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
         <v>1600</v>
       </c>
       <c r="F58" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G58" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86600</v>
+        <v>88500</v>
       </c>
       <c r="E59" s="3">
-        <v>65100</v>
+        <v>66400</v>
       </c>
       <c r="F59" s="3">
-        <v>58500</v>
+        <v>59800</v>
       </c>
       <c r="G59" s="3">
-        <v>59200</v>
+        <v>60400</v>
       </c>
       <c r="H59" s="3">
-        <v>53600</v>
+        <v>54700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>103100</v>
+        <v>105300</v>
       </c>
       <c r="E60" s="3">
-        <v>75900</v>
+        <v>77500</v>
       </c>
       <c r="F60" s="3">
-        <v>68200</v>
+        <v>69700</v>
       </c>
       <c r="G60" s="3">
-        <v>104900</v>
+        <v>107100</v>
       </c>
       <c r="H60" s="3">
-        <v>61600</v>
+        <v>62900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>84100</v>
+        <v>85900</v>
       </c>
       <c r="E61" s="3">
-        <v>77700</v>
+        <v>79300</v>
       </c>
       <c r="F61" s="3">
-        <v>76700</v>
+        <v>78400</v>
       </c>
       <c r="G61" s="3">
-        <v>47500</v>
+        <v>48500</v>
       </c>
       <c r="H61" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="F62" s="3">
-        <v>31000</v>
+        <v>31700</v>
       </c>
       <c r="G62" s="3">
-        <v>59600</v>
+        <v>60900</v>
       </c>
       <c r="H62" s="3">
-        <v>87700</v>
+        <v>89600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>194500</v>
+        <v>198700</v>
       </c>
       <c r="E66" s="3">
-        <v>161600</v>
+        <v>165000</v>
       </c>
       <c r="F66" s="3">
-        <v>176000</v>
+        <v>179800</v>
       </c>
       <c r="G66" s="3">
-        <v>212000</v>
+        <v>216600</v>
       </c>
       <c r="H66" s="3">
-        <v>172700</v>
+        <v>176400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>196100</v>
+        <v>200200</v>
       </c>
       <c r="E72" s="3">
-        <v>-50700</v>
+        <v>-51800</v>
       </c>
       <c r="F72" s="3">
-        <v>68500</v>
+        <v>69900</v>
       </c>
       <c r="G72" s="3">
-        <v>-333100</v>
+        <v>-340200</v>
       </c>
       <c r="H72" s="3">
-        <v>-207900</v>
+        <v>-212400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>345900</v>
+        <v>353300</v>
       </c>
       <c r="E76" s="3">
-        <v>212900</v>
+        <v>217400</v>
       </c>
       <c r="F76" s="3">
-        <v>68700</v>
+        <v>70100</v>
       </c>
       <c r="G76" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="H76" s="3">
-        <v>70200</v>
+        <v>71700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-51200</v>
+        <v>-52200</v>
       </c>
       <c r="E81" s="3">
-        <v>-163200</v>
+        <v>-166700</v>
       </c>
       <c r="F81" s="3">
-        <v>-91900</v>
+        <v>-93900</v>
       </c>
       <c r="G81" s="3">
-        <v>-129000</v>
+        <v>-131700</v>
       </c>
       <c r="H81" s="3">
-        <v>-88900</v>
+        <v>-90800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="E83" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="F83" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="G83" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="H83" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-32100</v>
+        <v>-32800</v>
       </c>
       <c r="E89" s="3">
-        <v>-119300</v>
+        <v>-121800</v>
       </c>
       <c r="F89" s="3">
-        <v>-76000</v>
+        <v>-77600</v>
       </c>
       <c r="G89" s="3">
-        <v>-127700</v>
+        <v>-130400</v>
       </c>
       <c r="H89" s="3">
-        <v>-20600</v>
+        <v>-21100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E91" s="3">
         <v>-1300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G91" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="H91" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3489,10 +3489,10 @@
         <v>1400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="H94" s="3">
-        <v>72000</v>
+        <v>73500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,16 +3676,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>142000</v>
+        <v>145000</v>
       </c>
       <c r="E100" s="3">
-        <v>253900</v>
+        <v>259300</v>
       </c>
       <c r="F100" s="3">
-        <v>143900</v>
+        <v>146900</v>
       </c>
       <c r="G100" s="3">
-        <v>68400</v>
+        <v>69900</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -3712,7 +3712,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>117400</v>
+        <v>120000</v>
       </c>
       <c r="E102" s="3">
-        <v>134200</v>
+        <v>137100</v>
       </c>
       <c r="F102" s="3">
-        <v>69200</v>
+        <v>70700</v>
       </c>
       <c r="G102" s="3">
-        <v>-62600</v>
+        <v>-63900</v>
       </c>
       <c r="H102" s="3">
-        <v>51500</v>
+        <v>52600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IMCR_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>182200</v>
+        <v>178300</v>
       </c>
       <c r="E8" s="3">
-        <v>33600</v>
+        <v>32900</v>
       </c>
       <c r="F8" s="3">
-        <v>38200</v>
+        <v>37400</v>
       </c>
       <c r="G8" s="3">
-        <v>32500</v>
+        <v>31800</v>
       </c>
       <c r="H8" s="3">
-        <v>30000</v>
+        <v>29300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>181600</v>
+        <v>177800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>113000</v>
+        <v>110600</v>
       </c>
       <c r="E12" s="3">
+        <v>90800</v>
+      </c>
+      <c r="F12" s="3">
         <v>92800</v>
       </c>
-      <c r="F12" s="3">
-        <v>94800</v>
-      </c>
       <c r="G12" s="3">
-        <v>126700</v>
+        <v>124000</v>
       </c>
       <c r="H12" s="3">
-        <v>105900</v>
+        <v>103700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>16600</v>
+        <v>16200</v>
       </c>
       <c r="E14" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="F14" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="G14" s="3">
         <v>400</v>
@@ -953,19 +953,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E15" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="H15" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>232400</v>
+        <v>227500</v>
       </c>
       <c r="E17" s="3">
-        <v>204900</v>
+        <v>200600</v>
       </c>
       <c r="F17" s="3">
-        <v>147400</v>
+        <v>144300</v>
       </c>
       <c r="G17" s="3">
-        <v>182500</v>
+        <v>178600</v>
       </c>
       <c r="H17" s="3">
-        <v>148400</v>
+        <v>145300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-50200</v>
+        <v>-49100</v>
       </c>
       <c r="E18" s="3">
-        <v>-171300</v>
+        <v>-167700</v>
       </c>
       <c r="F18" s="3">
-        <v>-109200</v>
+        <v>-106900</v>
       </c>
       <c r="G18" s="3">
-        <v>-149900</v>
+        <v>-146800</v>
       </c>
       <c r="H18" s="3">
-        <v>-118400</v>
+        <v>-115900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E20" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="F20" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G20" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="H20" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-45900</v>
+        <v>-44900</v>
       </c>
       <c r="E21" s="3">
-        <v>-167500</v>
+        <v>-164000</v>
       </c>
       <c r="F21" s="3">
-        <v>-96300</v>
+        <v>-94300</v>
       </c>
       <c r="G21" s="3">
-        <v>-144500</v>
+        <v>-141500</v>
       </c>
       <c r="H21" s="3">
-        <v>-103200</v>
+        <v>-101100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E22" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F22" s="3">
         <v>3000</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-55900</v>
+        <v>-54800</v>
       </c>
       <c r="E23" s="3">
-        <v>-178600</v>
+        <v>-174800</v>
       </c>
       <c r="F23" s="3">
-        <v>-110700</v>
+        <v>-108400</v>
       </c>
       <c r="G23" s="3">
-        <v>-159900</v>
+        <v>-156600</v>
       </c>
       <c r="H23" s="3">
-        <v>-111700</v>
+        <v>-109400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="E24" s="3">
-        <v>-11900</v>
+        <v>-11700</v>
       </c>
       <c r="F24" s="3">
-        <v>-16800</v>
+        <v>-16500</v>
       </c>
       <c r="G24" s="3">
-        <v>-28200</v>
+        <v>-27600</v>
       </c>
       <c r="H24" s="3">
-        <v>-21000</v>
+        <v>-20500</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52200</v>
+        <v>-51100</v>
       </c>
       <c r="E26" s="3">
-        <v>-166700</v>
+        <v>-163200</v>
       </c>
       <c r="F26" s="3">
-        <v>-93900</v>
+        <v>-91900</v>
       </c>
       <c r="G26" s="3">
-        <v>-131700</v>
+        <v>-128900</v>
       </c>
       <c r="H26" s="3">
-        <v>-90800</v>
+        <v>-88900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52200</v>
+        <v>-51100</v>
       </c>
       <c r="E27" s="3">
-        <v>-166700</v>
+        <v>-163200</v>
       </c>
       <c r="F27" s="3">
-        <v>-93900</v>
+        <v>-91900</v>
       </c>
       <c r="G27" s="3">
-        <v>-131700</v>
+        <v>-128900</v>
       </c>
       <c r="H27" s="3">
-        <v>-90800</v>
+        <v>-88900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,19 +1522,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E32" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G32" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="H32" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52200</v>
+        <v>-51100</v>
       </c>
       <c r="E33" s="3">
-        <v>-166700</v>
+        <v>-163200</v>
       </c>
       <c r="F33" s="3">
-        <v>-93900</v>
+        <v>-91900</v>
       </c>
       <c r="G33" s="3">
-        <v>-131700</v>
+        <v>-128900</v>
       </c>
       <c r="H33" s="3">
-        <v>-90800</v>
+        <v>-88900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52200</v>
+        <v>-51100</v>
       </c>
       <c r="E35" s="3">
-        <v>-166700</v>
+        <v>-163200</v>
       </c>
       <c r="F35" s="3">
-        <v>-93900</v>
+        <v>-91900</v>
       </c>
       <c r="G35" s="3">
-        <v>-131700</v>
+        <v>-128900</v>
       </c>
       <c r="H35" s="3">
-        <v>-90800</v>
+        <v>-88900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>421400</v>
+        <v>412500</v>
       </c>
       <c r="E41" s="3">
-        <v>301500</v>
+        <v>295100</v>
       </c>
       <c r="F41" s="3">
-        <v>164400</v>
+        <v>160900</v>
       </c>
       <c r="G41" s="3">
-        <v>93700</v>
+        <v>91800</v>
       </c>
       <c r="H41" s="3">
-        <v>157600</v>
+        <v>154300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>59700</v>
+        <v>58400</v>
       </c>
       <c r="E43" s="3">
-        <v>21700</v>
+        <v>21300</v>
       </c>
       <c r="F43" s="3">
-        <v>21200</v>
+        <v>20700</v>
       </c>
       <c r="G43" s="3">
-        <v>57800</v>
+        <v>56500</v>
       </c>
       <c r="H43" s="3">
-        <v>48800</v>
+        <v>47800</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14300</v>
+        <v>14000</v>
       </c>
       <c r="E45" s="3">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="F45" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="G45" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H45" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>496600</v>
+        <v>486200</v>
       </c>
       <c r="E46" s="3">
-        <v>333000</v>
+        <v>325900</v>
       </c>
       <c r="F46" s="3">
-        <v>193800</v>
+        <v>189700</v>
       </c>
       <c r="G46" s="3">
-        <v>157500</v>
+        <v>154200</v>
       </c>
       <c r="H46" s="3">
-        <v>216900</v>
+        <v>212400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40100</v>
+        <v>39300</v>
       </c>
       <c r="E48" s="3">
-        <v>40000</v>
+        <v>39100</v>
       </c>
       <c r="F48" s="3">
-        <v>46700</v>
+        <v>45700</v>
       </c>
       <c r="G48" s="3">
-        <v>69500</v>
+        <v>68100</v>
       </c>
       <c r="H48" s="3">
-        <v>26500</v>
+        <v>25900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14700</v>
+        <v>14400</v>
       </c>
       <c r="E52" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="F52" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="G52" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="H52" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>551900</v>
+        <v>540300</v>
       </c>
       <c r="E54" s="3">
-        <v>382400</v>
+        <v>374400</v>
       </c>
       <c r="F54" s="3">
-        <v>249900</v>
+        <v>244600</v>
       </c>
       <c r="G54" s="3">
-        <v>235300</v>
+        <v>230300</v>
       </c>
       <c r="H54" s="3">
-        <v>248100</v>
+        <v>242900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14800</v>
+        <v>14500</v>
       </c>
       <c r="E57" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="F57" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="G57" s="3">
-        <v>19900</v>
+        <v>19500</v>
       </c>
       <c r="H57" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,16 +2311,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E58" s="3">
         <v>1600</v>
       </c>
       <c r="F58" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G58" s="3">
-        <v>26800</v>
+        <v>26200</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>88500</v>
+        <v>86600</v>
       </c>
       <c r="E59" s="3">
-        <v>66400</v>
+        <v>65000</v>
       </c>
       <c r="F59" s="3">
-        <v>59800</v>
+        <v>58500</v>
       </c>
       <c r="G59" s="3">
-        <v>60400</v>
+        <v>59100</v>
       </c>
       <c r="H59" s="3">
-        <v>54700</v>
+        <v>53500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>105300</v>
+        <v>103100</v>
       </c>
       <c r="E60" s="3">
-        <v>77500</v>
+        <v>75900</v>
       </c>
       <c r="F60" s="3">
-        <v>69700</v>
+        <v>68200</v>
       </c>
       <c r="G60" s="3">
-        <v>107100</v>
+        <v>104800</v>
       </c>
       <c r="H60" s="3">
-        <v>62900</v>
+        <v>61500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85900</v>
+        <v>84000</v>
       </c>
       <c r="E61" s="3">
-        <v>79300</v>
+        <v>77600</v>
       </c>
       <c r="F61" s="3">
-        <v>78400</v>
+        <v>76700</v>
       </c>
       <c r="G61" s="3">
-        <v>48500</v>
+        <v>47500</v>
       </c>
       <c r="H61" s="3">
-        <v>23900</v>
+        <v>23400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="E62" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="F62" s="3">
-        <v>31700</v>
+        <v>31000</v>
       </c>
       <c r="G62" s="3">
-        <v>60900</v>
+        <v>59600</v>
       </c>
       <c r="H62" s="3">
-        <v>89600</v>
+        <v>87700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>198700</v>
+        <v>194500</v>
       </c>
       <c r="E66" s="3">
-        <v>165000</v>
+        <v>161600</v>
       </c>
       <c r="F66" s="3">
-        <v>179800</v>
+        <v>176000</v>
       </c>
       <c r="G66" s="3">
-        <v>216600</v>
+        <v>212000</v>
       </c>
       <c r="H66" s="3">
-        <v>176400</v>
+        <v>172700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>200200</v>
+        <v>196000</v>
       </c>
       <c r="E72" s="3">
-        <v>-51800</v>
+        <v>-50700</v>
       </c>
       <c r="F72" s="3">
-        <v>69900</v>
+        <v>68500</v>
       </c>
       <c r="G72" s="3">
-        <v>-340200</v>
+        <v>-333000</v>
       </c>
       <c r="H72" s="3">
-        <v>-212400</v>
+        <v>-207900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>353300</v>
+        <v>345800</v>
       </c>
       <c r="E76" s="3">
-        <v>217400</v>
+        <v>212800</v>
       </c>
       <c r="F76" s="3">
-        <v>70100</v>
+        <v>68700</v>
       </c>
       <c r="G76" s="3">
-        <v>18700</v>
+        <v>18300</v>
       </c>
       <c r="H76" s="3">
-        <v>71700</v>
+        <v>70200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52200</v>
+        <v>-51100</v>
       </c>
       <c r="E81" s="3">
-        <v>-166700</v>
+        <v>-163200</v>
       </c>
       <c r="F81" s="3">
-        <v>-93900</v>
+        <v>-91900</v>
       </c>
       <c r="G81" s="3">
-        <v>-131700</v>
+        <v>-128900</v>
       </c>
       <c r="H81" s="3">
-        <v>-90800</v>
+        <v>-88900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="E83" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="F83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G83" s="3">
         <v>11400</v>
       </c>
-      <c r="G83" s="3">
-        <v>11700</v>
-      </c>
       <c r="H83" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-32800</v>
+        <v>-32100</v>
       </c>
       <c r="E89" s="3">
-        <v>-121800</v>
+        <v>-119200</v>
       </c>
       <c r="F89" s="3">
-        <v>-77600</v>
+        <v>-76000</v>
       </c>
       <c r="G89" s="3">
-        <v>-130400</v>
+        <v>-127700</v>
       </c>
       <c r="H89" s="3">
-        <v>-21100</v>
+        <v>-20600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E91" s="3">
         <v>-1300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="G91" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="H91" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3489,10 +3489,10 @@
         <v>1400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H94" s="3">
-        <v>73500</v>
+        <v>72000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,16 +3676,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>145000</v>
+        <v>142000</v>
       </c>
       <c r="E100" s="3">
-        <v>259300</v>
+        <v>253900</v>
       </c>
       <c r="F100" s="3">
-        <v>146900</v>
+        <v>143800</v>
       </c>
       <c r="G100" s="3">
-        <v>69900</v>
+        <v>68400</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -3712,7 +3712,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>120000</v>
+        <v>117400</v>
       </c>
       <c r="E102" s="3">
-        <v>137100</v>
+        <v>134200</v>
       </c>
       <c r="F102" s="3">
-        <v>70700</v>
+        <v>69200</v>
       </c>
       <c r="G102" s="3">
-        <v>-63900</v>
+        <v>-62500</v>
       </c>
       <c r="H102" s="3">
-        <v>52600</v>
+        <v>51500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
